--- a/7_Allegati/Gantt/Gantt_cons.xlsx
+++ b/7_Allegati/Gantt/Gantt_cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M306\Progetto_CasaNote\7_Allegati\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82FF38-C919-44B3-9F6D-AC7D4B2A9A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655BC61-3FE3-4A66-A51C-C7461E75BC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{285B56FD-1A67-4790-99DC-B99A42CD0DBC}"/>
   </bookViews>
@@ -352,8 +352,39 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,39 +395,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:CZ46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM57" sqref="AM57"/>
+      <selection activeCell="H21" sqref="H21:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,104 +744,104 @@
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
+      <c r="CY1" s="23"/>
+      <c r="CZ1" s="23"/>
     </row>
     <row r="2" spans="1:104" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
@@ -850,117 +850,117 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="23"/>
     </row>
     <row r="3" spans="1:104" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="8">
         <v>45665</v>
       </c>
       <c r="H3" s="1"/>
@@ -968,13 +968,13 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="9">
         <v>45665</v>
       </c>
       <c r="H4" s="1"/>
@@ -982,17 +982,17 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="9">
         <v>45665</v>
       </c>
       <c r="K5" s="1"/>
@@ -1000,13 +1000,13 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="9">
         <v>45665</v>
       </c>
       <c r="K6" s="1"/>
@@ -1014,17 +1014,17 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10">
         <v>45665</v>
       </c>
       <c r="N7" s="1"/>
@@ -1032,13 +1032,13 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10">
         <v>45672</v>
       </c>
       <c r="N8" s="1"/>
@@ -1051,29 +1051,31 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9">
         <v>45672</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="13">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
         <v>45679</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -1081,29 +1083,29 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9">
         <v>45672</v>
       </c>
-      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="13">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="9">
         <v>45679</v>
       </c>
-      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -1111,29 +1113,29 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9">
         <v>45672</v>
       </c>
-      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="13">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9">
         <v>45679</v>
       </c>
-      <c r="U14" s="2"/>
       <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -1141,281 +1143,280 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9">
         <v>45679</v>
       </c>
-      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10">
         <v>45693</v>
       </c>
-      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>2</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10">
         <v>45693</v>
       </c>
-      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10">
         <v>45693</v>
       </c>
-      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10">
         <v>45693</v>
       </c>
-      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="16">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10">
         <v>45693</v>
       </c>
-      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="14">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="12">
         <v>6</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16">
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10">
         <v>45700</v>
       </c>
-      <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-    </row>
-    <row r="22" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="16">
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10">
         <v>45714</v>
       </c>
-      <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10">
         <v>45700</v>
       </c>
-      <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AG23" s="3"/>
+      <c r="AD23" s="7"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="7"/>
-    </row>
-    <row r="24" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="16">
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="10">
         <v>45714</v>
       </c>
-      <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AG24" s="3"/>
+      <c r="AD24" s="7"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="7"/>
-    </row>
-    <row r="25" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="20" t="s">
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="7"/>
+    </row>
+    <row r="25" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="14">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="12">
         <v>6</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16">
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10">
         <v>45728</v>
       </c>
-      <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AL25" s="3"/>
+      <c r="AG25" s="7"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
-    </row>
-    <row r="26" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="16">
+      <c r="AR25" s="3"/>
+    </row>
+    <row r="26" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10">
         <v>45735</v>
       </c>
-      <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AL26" s="3"/>
+      <c r="AG26" s="7"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
-    </row>
-    <row r="27" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="20" t="s">
+      <c r="AR26" s="3"/>
+    </row>
+    <row r="27" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="14">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="12">
         <v>6</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10">
         <v>45742</v>
       </c>
-      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
-      <c r="AR27" s="3"/>
+      <c r="AM27" s="7"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
-    </row>
-    <row r="28" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="16">
+      <c r="AX27" s="3"/>
+    </row>
+    <row r="28" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10">
         <v>45749</v>
       </c>
-      <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
-      <c r="AR28" s="3"/>
+      <c r="AM28" s="7"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
-    </row>
-    <row r="29" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="20" t="s">
+      <c r="AX28" s="3"/>
+    </row>
+    <row r="29" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="14">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="12">
         <v>6</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="10">
         <v>45756</v>
       </c>
-      <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
@@ -1424,257 +1425,258 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
-      <c r="AX29" s="3"/>
+      <c r="AP29" s="7"/>
       <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
-    </row>
-    <row r="30" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="16">
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="10">
         <v>45763</v>
       </c>
-      <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
-      <c r="AX30" s="3"/>
+      <c r="AP30" s="7"/>
       <c r="AY30" s="3"/>
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
       <c r="BC30" s="3"/>
-    </row>
-    <row r="31" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="20" t="s">
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="14">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="12">
         <v>6</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16">
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10">
         <v>45777</v>
       </c>
-      <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
-      <c r="BD31" s="3"/>
+      <c r="AT31" s="7"/>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
       <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
-    </row>
-    <row r="32" spans="1:61" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="16">
+      <c r="BJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="10">
         <v>45778</v>
       </c>
-      <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
-      <c r="BD32" s="3"/>
+      <c r="AT32" s="7"/>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
     </row>
     <row r="33" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="14">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="12">
         <v>2</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
     </row>
     <row r="34" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="16">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
     </row>
     <row r="35" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="14">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="12">
         <v>2</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16">
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
     </row>
     <row r="36" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="16">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ36" s="4"/>
       <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
     </row>
     <row r="37" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="14">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="12">
         <v>2</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16">
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
     </row>
     <row r="38" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="16">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
     </row>
     <row r="39" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="14">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="12">
         <v>2</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16">
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
     </row>
     <row r="40" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="16">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="10">
         <v>45785</v>
       </c>
-      <c r="BJ40" s="4"/>
       <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
     </row>
     <row r="41" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="14">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12">
         <v>4</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16">
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="10">
         <v>45792</v>
       </c>
-      <c r="BL41" s="5"/>
       <c r="BM41" s="5"/>
       <c r="BN41" s="5"/>
       <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
     </row>
     <row r="42" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="16">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="10">
         <v>45792</v>
       </c>
-      <c r="BL42" s="5"/>
       <c r="BM42" s="5"/>
       <c r="BN42" s="5"/>
       <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
     </row>
     <row r="43" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="14">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="12">
         <f>SUM(D3:F42)</f>
         <v>68</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="13">
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="9">
         <v>45665</v>
       </c>
     </row>
     <row r="44" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="16">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="10">
         <v>45820</v>
       </c>
       <c r="H44" s="6"/>
@@ -1745,18 +1747,18 @@
       <c r="BU44" s="7"/>
     </row>
     <row r="45" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="14">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="12">
         <f>SUM(D3:F42)</f>
         <v>68</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="13">
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="9">
         <v>45665</v>
       </c>
       <c r="H45" s="6"/>
@@ -1827,13 +1829,13 @@
       <c r="BU45" s="7"/>
     </row>
     <row r="46" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="16">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="10">
         <v>45820</v>
       </c>
       <c r="H46" s="6"/>
@@ -1905,54 +1907,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="BD1:CZ2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:BC2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F20"/>
+    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="A29:C30"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="D37:F38"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="D39:F40"/>
     <mergeCell ref="A41:C42"/>
     <mergeCell ref="D41:F42"/>
     <mergeCell ref="A43:C44"/>
     <mergeCell ref="D43:F44"/>
     <mergeCell ref="A45:C46"/>
     <mergeCell ref="D45:F46"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="D37:F38"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="A29:C30"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F20"/>
-    <mergeCell ref="A21:C22"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F10"/>
-    <mergeCell ref="BD1:CZ2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:BC2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_Allegati/Gantt/Gantt_cons.xlsx
+++ b/7_Allegati/Gantt/Gantt_cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M306\CasaNote\7_Allegati\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663241FF-37F8-449D-BFBB-D693CF4BDCD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A22B767-0CCE-482F-9224-DFD40F29AF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{285B56FD-1A67-4790-99DC-B99A42CD0DBC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Durata (in 1h)</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Test responsive</t>
-  </si>
-  <si>
-    <t>Deployment</t>
   </si>
   <si>
     <t>Documentazione</t>
@@ -162,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,14 +334,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -359,24 +349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,20 +361,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -724,7 +711,7 @@
   <dimension ref="A1:CZ46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BQ45" sqref="BQ45"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,233 +723,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="21"/>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
     </row>
     <row r="2" spans="1:104" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11"/>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="21"/>
+      <c r="CW2" s="21"/>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="21"/>
+      <c r="CZ2" s="21"/>
     </row>
     <row r="3" spans="1:104" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="7">
         <v>45665</v>
       </c>
       <c r="H3" s="1"/>
@@ -970,13 +957,13 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="9">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="8">
         <v>45665</v>
       </c>
       <c r="H4" s="1"/>
@@ -984,17 +971,17 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="9">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="8">
         <v>45665</v>
       </c>
       <c r="K5" s="1"/>
@@ -1002,13 +989,13 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="8">
         <v>45665</v>
       </c>
       <c r="K6" s="1"/>
@@ -1016,17 +1003,17 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="10">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9">
         <v>45665</v>
       </c>
       <c r="N7" s="1"/>
@@ -1034,13 +1021,13 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="10">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9">
         <v>45672</v>
       </c>
       <c r="N8" s="1"/>
@@ -1048,17 +1035,17 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="9">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8">
         <v>45672</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1066,13 +1053,13 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="9">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8">
         <v>45679</v>
       </c>
       <c r="Q10" s="2"/>
@@ -1080,167 +1067,167 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="17">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="9">
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8">
         <v>45672</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8">
         <v>45679</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="17">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="9">
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8">
         <v>45672</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="9">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="8">
         <v>45679</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="9">
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8">
         <v>45679</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9">
         <v>45693</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="10">
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9">
         <v>45693</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="10">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="9">
         <v>45693</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="10">
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9">
         <v>45693</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="10">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="9">
         <v>45693</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="17">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10">
         <v>6</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="10">
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9">
         <v>45700</v>
       </c>
       <c r="AB21" s="3"/>
@@ -1251,13 +1238,13 @@
       <c r="AG21" s="3"/>
     </row>
     <row r="22" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="9">
         <v>45714</v>
       </c>
       <c r="AB22" s="3"/>
@@ -1268,66 +1255,66 @@
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="17">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10">
         <v>5</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="10">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9">
         <v>45700</v>
       </c>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-      <c r="AM23" s="7"/>
+      <c r="AM23" s="6"/>
     </row>
     <row r="24" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="9">
         <v>45714</v>
       </c>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="7"/>
+      <c r="AM24" s="6"/>
     </row>
     <row r="25" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="17">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10">
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9">
         <v>45721</v>
       </c>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
@@ -1345,18 +1332,18 @@
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="9">
         <v>45778</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
@@ -1374,25 +1361,25 @@
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="17">
-        <v>14</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="10">
+      <c r="A27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="10">
+        <v>30</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9">
         <v>45742</v>
       </c>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -1414,21 +1401,21 @@
       <c r="BK27" s="3"/>
     </row>
     <row r="28" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9">
         <v>45798</v>
       </c>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
@@ -1450,28 +1437,28 @@
       <c r="BK28" s="3"/>
     </row>
     <row r="29" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="17">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="10">
         <v>6</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10">
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9">
         <v>45777</v>
       </c>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
@@ -1480,18 +1467,18 @@
       <c r="BM29" s="3"/>
     </row>
     <row r="30" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="10">
-        <v>45778</v>
-      </c>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="9">
+        <v>45784</v>
+      </c>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
@@ -1500,23 +1487,23 @@
       <c r="BM30" s="3"/>
     </row>
     <row r="31" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="17">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="10">
         <v>6</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="10">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9">
         <v>45785</v>
       </c>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
@@ -1525,19 +1512,19 @@
       <c r="BM31" s="3"/>
     </row>
     <row r="32" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="10">
-        <v>45792</v>
-      </c>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9">
+        <v>45791</v>
+      </c>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
@@ -1546,461 +1533,473 @@
       <c r="BM32" s="3"/>
     </row>
     <row r="33" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="17">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="10">
         <v>2</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="10">
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="9">
         <v>45785</v>
       </c>
       <c r="BN33" s="4"/>
       <c r="BO33" s="4"/>
     </row>
     <row r="34" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10">
-        <v>45785</v>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="9">
+        <v>45798</v>
       </c>
       <c r="BN34" s="4"/>
       <c r="BO34" s="4"/>
     </row>
     <row r="35" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="17">
+      <c r="A35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="10">
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="9">
         <v>45785</v>
       </c>
       <c r="BN35" s="4"/>
       <c r="BO35" s="4"/>
     </row>
     <row r="36" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="10">
-        <v>45785</v>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="9">
+        <v>45798</v>
       </c>
       <c r="BN36" s="4"/>
       <c r="BO36" s="4"/>
     </row>
     <row r="37" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="17">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="10">
         <v>2</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="10">
-        <v>45785</v>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="9">
+        <v>45791</v>
       </c>
       <c r="BN37" s="4"/>
       <c r="BO37" s="4"/>
     </row>
     <row r="38" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="10">
-        <v>45785</v>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="9">
+        <v>45805</v>
       </c>
       <c r="BN38" s="4"/>
       <c r="BO38" s="4"/>
     </row>
     <row r="39" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="17">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="10">
         <v>2</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="10">
-        <v>45785</v>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="9">
+        <v>45791</v>
       </c>
       <c r="BN39" s="4"/>
       <c r="BO39" s="4"/>
     </row>
     <row r="40" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="10">
-        <v>45785</v>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="9">
+        <v>45798</v>
       </c>
       <c r="BN40" s="4"/>
       <c r="BO40" s="4"/>
     </row>
-    <row r="41" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="17">
-        <v>4</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="10">
-        <v>45792</v>
-      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="10">
+        <f>SUM(D3:F40)</f>
+        <v>96</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="8">
+        <v>45665</v>
+      </c>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
       <c r="BP41" s="5"/>
       <c r="BQ41" s="5"/>
       <c r="BR41" s="5"/>
       <c r="BS41" s="5"/>
     </row>
     <row r="42" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="10">
-        <v>45799</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="9">
+        <v>45812</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
       <c r="BP42" s="5"/>
       <c r="BQ42" s="5"/>
       <c r="BR42" s="5"/>
       <c r="BS42" s="5"/>
     </row>
     <row r="43" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="17">
-        <f>SUM(D3:F42)</f>
-        <v>84</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="9">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="10">
+        <f>SUM(D3:F40)</f>
+        <v>96</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="8">
         <v>45665</v>
       </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
     </row>
     <row r="44" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="10">
-        <v>45820</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="6"/>
-      <c r="AO44" s="6"/>
-      <c r="AP44" s="6"/>
-      <c r="AQ44" s="6"/>
-      <c r="AR44" s="6"/>
-      <c r="AS44" s="6"/>
-      <c r="AT44" s="6"/>
-      <c r="AU44" s="6"/>
-      <c r="AV44" s="6"/>
-      <c r="AW44" s="6"/>
-      <c r="AX44" s="6"/>
-      <c r="AY44" s="6"/>
-      <c r="AZ44" s="6"/>
-      <c r="BA44" s="6"/>
-      <c r="BB44" s="6"/>
-      <c r="BC44" s="6"/>
-      <c r="BD44" s="6"/>
-      <c r="BE44" s="6"/>
-      <c r="BF44" s="6"/>
-      <c r="BG44" s="6"/>
-      <c r="BH44" s="6"/>
-      <c r="BI44" s="6"/>
-      <c r="BJ44" s="6"/>
-      <c r="BK44" s="6"/>
-      <c r="BL44" s="6"/>
-      <c r="BM44" s="6"/>
-      <c r="BN44" s="6"/>
-      <c r="BO44" s="6"/>
-      <c r="BP44" s="6"/>
-      <c r="BQ44" s="6"/>
-      <c r="BR44" s="6"/>
-      <c r="BS44" s="6"/>
-      <c r="BT44" s="7"/>
-      <c r="BU44" s="7"/>
-    </row>
-    <row r="45" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="17">
-        <f>SUM(D3:F42)</f>
-        <v>84</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="9">
-        <v>45665</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="6"/>
-      <c r="AT45" s="6"/>
-      <c r="AU45" s="6"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="6"/>
-      <c r="AY45" s="6"/>
-      <c r="AZ45" s="6"/>
-      <c r="BA45" s="6"/>
-      <c r="BB45" s="6"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
-      <c r="BE45" s="6"/>
-      <c r="BF45" s="6"/>
-      <c r="BG45" s="6"/>
-      <c r="BH45" s="6"/>
-      <c r="BI45" s="6"/>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="6"/>
-      <c r="BL45" s="6"/>
-      <c r="BM45" s="6"/>
-      <c r="BN45" s="6"/>
-      <c r="BO45" s="6"/>
-      <c r="BP45" s="6"/>
-      <c r="BQ45" s="6"/>
-      <c r="BR45" s="6"/>
-      <c r="BS45" s="6"/>
-      <c r="BT45" s="7"/>
-      <c r="BU45" s="7"/>
-    </row>
-    <row r="46" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="10">
-        <v>45820</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
-      <c r="AS46" s="6"/>
-      <c r="AT46" s="6"/>
-      <c r="AU46" s="6"/>
-      <c r="AV46" s="6"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="6"/>
-      <c r="AY46" s="6"/>
-      <c r="AZ46" s="6"/>
-      <c r="BA46" s="6"/>
-      <c r="BB46" s="6"/>
-      <c r="BC46" s="6"/>
-      <c r="BD46" s="6"/>
-      <c r="BE46" s="6"/>
-      <c r="BF46" s="6"/>
-      <c r="BG46" s="6"/>
-      <c r="BH46" s="6"/>
-      <c r="BI46" s="6"/>
-      <c r="BJ46" s="6"/>
-      <c r="BK46" s="6"/>
-      <c r="BL46" s="6"/>
-      <c r="BM46" s="6"/>
-      <c r="BN46" s="6"/>
-      <c r="BO46" s="6"/>
-      <c r="BP46" s="6"/>
-      <c r="BQ46" s="6"/>
-      <c r="BR46" s="6"/>
-      <c r="BS46" s="6"/>
-      <c r="BT46" s="7"/>
-      <c r="BU46" s="7"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="9">
+        <v>45812</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="6"/>
+      <c r="BU44" s="6"/>
+    </row>
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="6"/>
+    </row>
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BT46" s="6"/>
+      <c r="BU46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="D43:F44"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:F46"/>
+  <mergeCells count="46">
+    <mergeCell ref="BD1:CZ2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:BC2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F20"/>
+    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="A29:C30"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="D33:F34"/>
     <mergeCell ref="A35:C36"/>
     <mergeCell ref="D35:F36"/>
     <mergeCell ref="A37:C38"/>
     <mergeCell ref="D37:F38"/>
     <mergeCell ref="A39:C40"/>
     <mergeCell ref="D39:F40"/>
-    <mergeCell ref="A29:C30"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F20"/>
-    <mergeCell ref="A21:C22"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F10"/>
-    <mergeCell ref="BD1:CZ2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:BC2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="D43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_Allegati/Gantt/Gantt_cons.xlsx
+++ b/7_Allegati/Gantt/Gantt_cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M306\CasaNote\7_Allegati\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A22B767-0CCE-482F-9224-DFD40F29AF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56922F-37D7-4156-B84C-A39B157395BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{285B56FD-1A67-4790-99DC-B99A42CD0DBC}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> cifratura del database</t>
   </si>
   <si>
-    <t>Implementazione del CAPTCHA</t>
-  </si>
-  <si>
     <t>Test registrazione / login</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
   </si>
   <si>
     <t xml:space="preserve">Integrazione delle funzionalità </t>
+  </si>
+  <si>
+    <t>Implementazione del CAPTCHA (EXTRA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,28 +131,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
+      <sz val="24"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -334,7 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -342,50 +350,53 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,524 +721,525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3641A-41BC-4333-A51E-3CA040F33801}">
   <dimension ref="A1:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="27" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="38" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="38" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="21"/>
-      <c r="CN1" s="21"/>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="21"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="21"/>
-      <c r="CU1" s="21"/>
-      <c r="CV1" s="21"/>
-      <c r="CW1" s="21"/>
-      <c r="CX1" s="21"/>
-      <c r="CY1" s="21"/>
-      <c r="CZ1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
     </row>
     <row r="2" spans="1:104" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="21"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="21"/>
-      <c r="BP2" s="21"/>
-      <c r="BQ2" s="21"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="21"/>
-      <c r="BX2" s="21"/>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="21"/>
-      <c r="CN2" s="21"/>
-      <c r="CO2" s="21"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="21"/>
-      <c r="CR2" s="21"/>
-      <c r="CS2" s="21"/>
-      <c r="CT2" s="21"/>
-      <c r="CU2" s="21"/>
-      <c r="CV2" s="21"/>
-      <c r="CW2" s="21"/>
-      <c r="CX2" s="21"/>
-      <c r="CY2" s="21"/>
-      <c r="CZ2" s="21"/>
-    </row>
-    <row r="3" spans="1:104" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="7"/>
+      <c r="CH2" s="7"/>
+      <c r="CI2" s="7"/>
+      <c r="CJ2" s="7"/>
+      <c r="CK2" s="7"/>
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="7"/>
+      <c r="CN2" s="7"/>
+      <c r="CO2" s="7"/>
+      <c r="CP2" s="7"/>
+      <c r="CQ2" s="7"/>
+      <c r="CR2" s="7"/>
+      <c r="CS2" s="7"/>
+      <c r="CT2" s="7"/>
+      <c r="CU2" s="7"/>
+      <c r="CV2" s="7"/>
+      <c r="CW2" s="7"/>
+      <c r="CX2" s="7"/>
+      <c r="CY2" s="7"/>
+      <c r="CZ2" s="7"/>
+    </row>
+    <row r="3" spans="1:104" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="7">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
         <v>45665</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="8">
+    <row r="4" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11">
         <v>45665</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11">
         <v>45665</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="8">
+    <row r="6" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11">
         <v>45665</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:104" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="10">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14">
         <v>45665</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9">
+    <row r="8" spans="1:104" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14">
         <v>45672</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="10">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11">
         <v>45672</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8">
+    <row r="10" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="11">
         <v>45679</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11">
         <v>45672</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8">
+    <row r="12" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11">
         <v>45679</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="10">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11">
         <v>45672</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="8">
+    <row r="14" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="11">
         <v>45679</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:104" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:104" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="10">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11">
         <v>45679</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:104" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9">
+    <row r="16" spans="1:104" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14">
         <v>45693</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12">
         <v>2</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
         <v>45693</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9">
+    <row r="18" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14">
         <v>45693</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="10">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12">
         <v>2</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
         <v>45693</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="9">
+    <row r="20" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="14">
         <v>45693</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="10">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="12">
         <v>6</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9">
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14">
         <v>45700</v>
       </c>
       <c r="AB21" s="3"/>
@@ -1237,14 +1249,14 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="9">
+    <row r="22" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14">
         <v>45714</v>
       </c>
       <c r="AB22" s="3"/>
@@ -1254,18 +1266,18 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="10">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
         <v>45700</v>
       </c>
       <c r="AB23" s="6"/>
@@ -1278,14 +1290,14 @@
       <c r="AL23" s="3"/>
       <c r="AM23" s="6"/>
     </row>
-    <row r="24" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="9">
+    <row r="24" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="14">
         <v>45714</v>
       </c>
       <c r="AB24" s="6"/>
@@ -1298,18 +1310,18 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="6"/>
     </row>
-    <row r="25" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="10">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="12">
         <v>14</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9">
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
         <v>45721</v>
       </c>
       <c r="AE25" s="6"/>
@@ -1331,14 +1343,14 @@
       <c r="AZ25" s="3"/>
       <c r="BA25" s="3"/>
     </row>
-    <row r="26" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="9">
+    <row r="26" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="14">
         <v>45778</v>
       </c>
       <c r="AE26" s="6"/>
@@ -1360,18 +1372,18 @@
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
     </row>
-    <row r="27" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="10">
+    <row r="27" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="12">
         <v>30</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14">
         <v>45742</v>
       </c>
       <c r="AH27" s="6"/>
@@ -1400,14 +1412,14 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9">
+    <row r="28" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14">
         <v>45798</v>
       </c>
       <c r="AH28" s="6"/>
@@ -1436,18 +1448,18 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="10">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="12">
         <v>6</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="9">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14">
         <v>45777</v>
       </c>
       <c r="AH29" s="6"/>
@@ -1466,14 +1478,14 @@
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
     </row>
-    <row r="30" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="9">
+    <row r="30" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="14">
         <v>45784</v>
       </c>
       <c r="AN30" s="6"/>
@@ -1486,18 +1498,18 @@
       <c r="BL30" s="3"/>
       <c r="BM30" s="3"/>
     </row>
-    <row r="31" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="10">
+    <row r="31" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="12">
         <v>6</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="9">
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14">
         <v>45785</v>
       </c>
       <c r="AQ31" s="6"/>
@@ -1511,14 +1523,14 @@
       <c r="BL31" s="3"/>
       <c r="BM31" s="3"/>
     </row>
-    <row r="32" spans="1:65" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9">
+    <row r="32" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="14">
         <v>45791</v>
       </c>
       <c r="AQ32" s="6"/>
@@ -1532,141 +1544,161 @@
       <c r="BL32" s="3"/>
       <c r="BM32" s="3"/>
     </row>
-    <row r="33" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="10">
+    <row r="33" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="12">
         <v>2</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="9">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14">
         <v>45785</v>
       </c>
       <c r="BN33" s="4"/>
       <c r="BO33" s="4"/>
     </row>
-    <row r="34" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="9">
+    <row r="34" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="14">
         <v>45798</v>
       </c>
       <c r="BN34" s="4"/>
       <c r="BO34" s="4"/>
     </row>
-    <row r="35" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="10">
+    <row r="35" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="12">
         <v>2</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="9">
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14">
         <v>45785</v>
       </c>
       <c r="BN35" s="4"/>
       <c r="BO35" s="4"/>
     </row>
-    <row r="36" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="9">
+    <row r="36" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="14">
         <v>45798</v>
       </c>
       <c r="BN36" s="4"/>
       <c r="BO36" s="4"/>
     </row>
-    <row r="37" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="10">
+    <row r="37" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="12">
         <v>2</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="9">
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14">
         <v>45791</v>
       </c>
       <c r="BN37" s="4"/>
       <c r="BO37" s="4"/>
     </row>
-    <row r="38" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="9">
+    <row r="38" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="14">
         <v>45805</v>
       </c>
       <c r="BN38" s="4"/>
       <c r="BO38" s="4"/>
     </row>
-    <row r="39" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="10">
-        <v>2</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="9">
-        <v>45791</v>
+    <row r="39" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14">
+        <v>45798</v>
       </c>
       <c r="BN39" s="4"/>
       <c r="BO39" s="4"/>
     </row>
-    <row r="40" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="9">
-        <v>45798</v>
+    <row r="40" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="14">
+        <v>45805</v>
       </c>
       <c r="BN40" s="4"/>
       <c r="BO40" s="4"/>
     </row>
-    <row r="41" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="10">
+    <row r="41" spans="1:73" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="12">
         <f>SUM(D3:F40)</f>
-        <v>96</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="8">
+        <v>95</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11">
         <v>45665</v>
       </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -1712,15 +1744,15 @@
       <c r="BR41" s="5"/>
       <c r="BS41" s="5"/>
     </row>
-    <row r="42" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="9">
-        <v>45812</v>
+    <row r="42" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="14">
+        <v>45805</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1787,19 +1819,19 @@
       <c r="BR42" s="5"/>
       <c r="BS42" s="5"/>
     </row>
-    <row r="43" spans="1:73" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="10">
+    <row r="43" spans="1:73" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="12">
         <f>SUM(D3:F40)</f>
-        <v>96</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="8">
+        <v>95</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11">
         <v>45665</v>
       </c>
       <c r="H43" s="5"/>
@@ -1867,15 +1899,15 @@
       <c r="BR43" s="5"/>
       <c r="BS43" s="5"/>
     </row>
-    <row r="44" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="9">
-        <v>45812</v>
+    <row r="44" spans="1:73" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="14">
+        <v>45805</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1990,16 +2022,16 @@
     <mergeCell ref="D31:F32"/>
     <mergeCell ref="A33:C34"/>
     <mergeCell ref="D33:F34"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="D43:F44"/>
     <mergeCell ref="A35:C36"/>
     <mergeCell ref="D35:F36"/>
     <mergeCell ref="A37:C38"/>
     <mergeCell ref="D37:F38"/>
     <mergeCell ref="A39:C40"/>
     <mergeCell ref="D39:F40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="D43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
